--- a/test-Data/VoidTransactions.xlsx
+++ b/test-Data/VoidTransactions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>TransId</t>
   </si>
@@ -29,85 +29,43 @@
     <t>PMI</t>
   </si>
   <si>
-    <t>192241020304205713</t>
+    <t>194241381878777875</t>
   </si>
   <si>
-    <t>224102030420572788</t>
+    <t>424138187877789630</t>
   </si>
   <si>
-    <t>18.00</t>
+    <t>52.00</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
-    <t>191241020306758666</t>
+    <t>194241381880583899</t>
   </si>
   <si>
-    <t>124102030675873216</t>
-  </si>
-  <si>
-    <t>81.00</t>
+    <t>424138188058389641</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>191241020308444272</t>
+    <t>194241381882579003</t>
   </si>
   <si>
-    <t>124102030844423217</t>
+    <t>424138188257909643</t>
   </si>
   <si>
-    <t>49.00</t>
+    <t>40.00</t>
   </si>
   <si>
-    <t>191241020312186782</t>
+    <t>194241381884746908</t>
   </si>
   <si>
-    <t>124102031218673218</t>
+    <t>424138188474699647</t>
   </si>
   <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>292241020314838252</t>
-  </si>
-  <si>
-    <t>000000000000000000</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>292241020316618169</t>
-  </si>
-  <si>
-    <t>191241020319145333</t>
-  </si>
-  <si>
-    <t>124102031914543220</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
-    <t>192241020320814593</t>
-  </si>
-  <si>
-    <t>224102032081452789</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>192241020322488707</t>
-  </si>
-  <si>
-    <t>224102032248872792</t>
-  </si>
-  <si>
-    <t>60.00</t>
+    <t>74.00</t>
   </si>
 </sst>
 </file>
@@ -152,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -197,21 +155,21 @@
         <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>15</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>8</v>
@@ -219,86 +177,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test-Data/VoidTransactions.xlsx
+++ b/test-Data/VoidTransactions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>TransId</t>
   </si>
@@ -29,43 +29,259 @@
     <t>PMI</t>
   </si>
   <si>
-    <t>194241381878777875</t>
-  </si>
-  <si>
-    <t>424138187877789630</t>
-  </si>
-  <si>
-    <t>52.00</t>
+    <t>191241573448536039</t>
+  </si>
+  <si>
+    <t>124157344853600327</t>
+  </si>
+  <si>
+    <t>28.00</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
-    <t>194241381880583899</t>
-  </si>
-  <si>
-    <t>424138188058389641</t>
+    <t>Test Card 01  4761730111160043</t>
+  </si>
+  <si>
+    <t>192241573449754581</t>
+  </si>
+  <si>
+    <t>224157344975450173</t>
+  </si>
+  <si>
+    <t>34.00</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>194241381882579003</t>
-  </si>
-  <si>
-    <t>424138188257909643</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>194241381884746908</t>
-  </si>
-  <si>
-    <t>424138188474699647</t>
-  </si>
-  <si>
-    <t>74.00</t>
+    <t>null  4761730111160043</t>
+  </si>
+  <si>
+    <t>191241573453111795</t>
+  </si>
+  <si>
+    <t>124157345311170349</t>
+  </si>
+  <si>
+    <t>TEST CARD 02  4761730111160043</t>
+  </si>
+  <si>
+    <t>191241573456527825</t>
+  </si>
+  <si>
+    <t>124157345652780355</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>Test Card 03  4761730111160043</t>
+  </si>
+  <si>
+    <t>191241573459623453</t>
+  </si>
+  <si>
+    <t>124157345962340360</t>
+  </si>
+  <si>
+    <t>192241573461847789</t>
+  </si>
+  <si>
+    <t>224157346184770202</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>Test Card 04  4761730111160043</t>
+  </si>
+  <si>
+    <t>191241573463550299</t>
+  </si>
+  <si>
+    <t>124157346355020371</t>
+  </si>
+  <si>
+    <t>192241573465125030</t>
+  </si>
+  <si>
+    <t>224157346512500212</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>Test Card 05  4761730111160043</t>
+  </si>
+  <si>
+    <t>191241573466497728</t>
+  </si>
+  <si>
+    <t>124157346649780380</t>
+  </si>
+  <si>
+    <t>191241573468655348</t>
+  </si>
+  <si>
+    <t>124157346865540386</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>Test Card 06  4761730111160043</t>
+  </si>
+  <si>
+    <t>192241573470038865</t>
+  </si>
+  <si>
+    <t>224157347003880223</t>
+  </si>
+  <si>
+    <t>null  5413331100064111</t>
+  </si>
+  <si>
+    <t>191241573472288785</t>
+  </si>
+  <si>
+    <t>124157347228870400</t>
+  </si>
+  <si>
+    <t>Test Card 07  5413331100064111</t>
+  </si>
+  <si>
+    <t>191241573474074317</t>
+  </si>
+  <si>
+    <t>124157347407430415</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>Test Card 08  5413331100130011</t>
+  </si>
+  <si>
+    <t>192241573475508331</t>
+  </si>
+  <si>
+    <t>224157347550840249</t>
+  </si>
+  <si>
+    <t>null  67999900111112010</t>
+  </si>
+  <si>
+    <t>192241573477726952</t>
+  </si>
+  <si>
+    <t>224157347772690258</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>Test Card 09  67999900111112010</t>
+  </si>
+  <si>
+    <t>192241573480092677</t>
+  </si>
+  <si>
+    <t>224157348009270268</t>
+  </si>
+  <si>
+    <t>null  5413331100109130</t>
+  </si>
+  <si>
+    <t>192241573482769522</t>
+  </si>
+  <si>
+    <t>224157348276950279</t>
+  </si>
+  <si>
+    <t>Test Card 10  5413331100109130</t>
+  </si>
+  <si>
+    <t>291241573484640524</t>
+  </si>
+  <si>
+    <t>000000000000000000</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>null  374245110011003</t>
+  </si>
+  <si>
+    <t>291241573486713751</t>
+  </si>
+  <si>
+    <t>Test Card 11  374245110011003</t>
+  </si>
+  <si>
+    <t>292241573489422292</t>
+  </si>
+  <si>
+    <t>291241573492401210</t>
+  </si>
+  <si>
+    <t>Test Card 12  374245110011003</t>
+  </si>
+  <si>
+    <t>292241573493804434</t>
+  </si>
+  <si>
+    <t>null  4462720000070215</t>
+  </si>
+  <si>
+    <t>291241573495921944</t>
+  </si>
+  <si>
+    <t>Test Card 13  4462720000070215</t>
+  </si>
+  <si>
+    <t>192241573498800799</t>
+  </si>
+  <si>
+    <t>224157349880070327</t>
+  </si>
+  <si>
+    <t>Test Card 14  5457211100130012</t>
+  </si>
+  <si>
+    <t>192241573500632019</t>
+  </si>
+  <si>
+    <t>224157350063200334</t>
+  </si>
+  <si>
+    <t>null  5457211100130012</t>
+  </si>
+  <si>
+    <t>292241573503230150</t>
+  </si>
+  <si>
+    <t>null  6510001111120844</t>
+  </si>
+  <si>
+    <t>292241573506106972</t>
+  </si>
+  <si>
+    <t>Test Card 15  6510001111120844</t>
+  </si>
+  <si>
+    <t>292241573507501586</t>
+  </si>
+  <si>
+    <t>null  36070511090715</t>
+  </si>
+  <si>
+    <t>291241573509534681</t>
+  </si>
+  <si>
+    <t>Test Card 16  36070511090715</t>
   </si>
 </sst>
 </file>
@@ -110,7 +326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,47 +362,484 @@
       <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="D4" t="s" s="0">
         <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/test-Data/VoidTransactions.xlsx
+++ b/test-Data/VoidTransactions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>TransId</t>
   </si>
@@ -29,181 +29,238 @@
     <t>PMI</t>
   </si>
   <si>
-    <t>191241573448536039</t>
-  </si>
-  <si>
-    <t>124157344853600327</t>
-  </si>
-  <si>
-    <t>28.00</t>
+    <t>128241692081809624</t>
+  </si>
+  <si>
+    <t>424169208180961611</t>
+  </si>
+  <si>
+    <t>7.00</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
-    <t>Test Card 01  4761730111160043</t>
-  </si>
-  <si>
-    <t>192241573449754581</t>
-  </si>
-  <si>
-    <t>224157344975450173</t>
-  </si>
-  <si>
-    <t>34.00</t>
+    <t>null  4761731111120011</t>
+  </si>
+  <si>
+    <t>109241692084509939</t>
+  </si>
+  <si>
+    <t>124169208451003916</t>
+  </si>
+  <si>
+    <t>9.00</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>null  4761730111160043</t>
-  </si>
-  <si>
-    <t>191241573453111795</t>
-  </si>
-  <si>
-    <t>124157345311170349</t>
-  </si>
-  <si>
-    <t>TEST CARD 02  4761730111160043</t>
-  </si>
-  <si>
-    <t>191241573456527825</t>
-  </si>
-  <si>
-    <t>124157345652780355</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>Test Card 03  4761730111160043</t>
-  </si>
-  <si>
-    <t>191241573459623453</t>
-  </si>
-  <si>
-    <t>124157345962340360</t>
-  </si>
-  <si>
-    <t>192241573461847789</t>
-  </si>
-  <si>
-    <t>224157346184770202</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>Test Card 04  4761730111160043</t>
-  </si>
-  <si>
-    <t>191241573463550299</t>
-  </si>
-  <si>
-    <t>124157346355020371</t>
-  </si>
-  <si>
-    <t>192241573465125030</t>
-  </si>
-  <si>
-    <t>224157346512500212</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>Test Card 05  4761730111160043</t>
-  </si>
-  <si>
-    <t>191241573466497728</t>
-  </si>
-  <si>
-    <t>124157346649780380</t>
-  </si>
-  <si>
-    <t>191241573468655348</t>
-  </si>
-  <si>
-    <t>124157346865540386</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>Test Card 06  4761730111160043</t>
-  </si>
-  <si>
-    <t>192241573470038865</t>
-  </si>
-  <si>
-    <t>224157347003880223</t>
+    <t>Test Card 01  4761731111120011</t>
+  </si>
+  <si>
+    <t>145241692087242070</t>
+  </si>
+  <si>
+    <t>724169208724214693</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Test Card 02  4761730111160043</t>
+  </si>
+  <si>
+    <t>128241692090975291</t>
+  </si>
+  <si>
+    <t>424169209097531693</t>
+  </si>
+  <si>
+    <t>Test Card 03  4761731111120011</t>
+  </si>
+  <si>
+    <t>127241692093432642</t>
+  </si>
+  <si>
+    <t>324169209343271767</t>
+  </si>
+  <si>
+    <t>112241692096069189</t>
+  </si>
+  <si>
+    <t>624169209606917838</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>Test Card 04  4761731111120243</t>
+  </si>
+  <si>
+    <t>127241692098175331</t>
+  </si>
+  <si>
+    <t>324169209817531812</t>
+  </si>
+  <si>
+    <t>110241692100569007</t>
+  </si>
+  <si>
+    <t>224169210056914028</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>TEST CARD 05  4761730110160267</t>
+  </si>
+  <si>
+    <t>109241692103285575</t>
+  </si>
+  <si>
+    <t>124169210328554091</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>111241692107320089</t>
+  </si>
+  <si>
+    <t>524169210732017961</t>
   </si>
   <si>
     <t>null  5413331100064111</t>
   </si>
   <si>
-    <t>191241573472288785</t>
-  </si>
-  <si>
-    <t>124157347228870400</t>
+    <t>110241692110131978</t>
+  </si>
+  <si>
+    <t>224169211013194119</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>Test Card 06  5413331100064111</t>
+  </si>
+  <si>
+    <t>109241692113096355</t>
+  </si>
+  <si>
+    <t>124169211309634188</t>
   </si>
   <si>
     <t>Test Card 07  5413331100064111</t>
   </si>
   <si>
-    <t>191241573474074317</t>
-  </si>
-  <si>
-    <t>124157347407430415</t>
-  </si>
-  <si>
-    <t>31.00</t>
+    <t>110241692114989878</t>
+  </si>
+  <si>
+    <t>224169211498994166</t>
+  </si>
+  <si>
+    <t>112241692117864441</t>
+  </si>
+  <si>
+    <t>624169211786447851</t>
   </si>
   <si>
     <t>Test Card 08  5413331100130011</t>
   </si>
   <si>
-    <t>192241573475508331</t>
-  </si>
-  <si>
-    <t>224157347550840249</t>
-  </si>
-  <si>
-    <t>null  67999900111112010</t>
-  </si>
-  <si>
-    <t>192241573477726952</t>
-  </si>
-  <si>
-    <t>224157347772690258</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>Test Card 09  67999900111112010</t>
-  </si>
-  <si>
-    <t>192241573480092677</t>
-  </si>
-  <si>
-    <t>224157348009270268</t>
-  </si>
-  <si>
-    <t>null  5413331100109130</t>
-  </si>
-  <si>
-    <t>192241573482769522</t>
-  </si>
-  <si>
-    <t>224157348276950279</t>
-  </si>
-  <si>
-    <t>Test Card 10  5413331100109130</t>
-  </si>
-  <si>
-    <t>291241573484640524</t>
+    <t>110241692119905167</t>
+  </si>
+  <si>
+    <t>224169211990514217</t>
+  </si>
+  <si>
+    <t>112241692122694955</t>
+  </si>
+  <si>
+    <t>624169212269497856</t>
+  </si>
+  <si>
+    <t>TEST CARD 09  5413331100130029</t>
+  </si>
+  <si>
+    <t>127241692125502133</t>
+  </si>
+  <si>
+    <t>324169212550212056</t>
+  </si>
+  <si>
+    <t>TEST CARD 10  5413331100130011</t>
+  </si>
+  <si>
+    <t>128241692128143468</t>
+  </si>
+  <si>
+    <t>424169212814352027</t>
+  </si>
+  <si>
+    <t>128241692135426695</t>
+  </si>
+  <si>
+    <t>424169213542672088</t>
+  </si>
+  <si>
+    <t>Test Card 12  374245110081006</t>
+  </si>
+  <si>
+    <t>128241692137143951</t>
+  </si>
+  <si>
+    <t>424169213714392103</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>null  374245110081006</t>
+  </si>
+  <si>
+    <t>109241692138958852</t>
+  </si>
+  <si>
+    <t>124169213895884438</t>
+  </si>
+  <si>
+    <t>null  374245110011003</t>
+  </si>
+  <si>
+    <t>128241692141045620</t>
+  </si>
+  <si>
+    <t>424169214104562141</t>
+  </si>
+  <si>
+    <t>Test Card 13  374245110011003</t>
+  </si>
+  <si>
+    <t>128241692143516179</t>
+  </si>
+  <si>
+    <t>424169214351612167</t>
+  </si>
+  <si>
+    <t>TEST CARD 14  374245110081006</t>
+  </si>
+  <si>
+    <t>112241692146848524</t>
+  </si>
+  <si>
+    <t>624169214684857876</t>
+  </si>
+  <si>
+    <t>145241692148744224</t>
+  </si>
+  <si>
+    <t>724169214874424745</t>
+  </si>
+  <si>
+    <t>null  6510001111120810</t>
   </si>
   <si>
     <t>000000000000000000</t>
@@ -212,76 +269,76 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>null  374245110011003</t>
-  </si>
-  <si>
-    <t>291241573486713751</t>
-  </si>
-  <si>
-    <t>Test Card 11  374245110011003</t>
-  </si>
-  <si>
-    <t>292241573489422292</t>
-  </si>
-  <si>
-    <t>291241573492401210</t>
-  </si>
-  <si>
-    <t>Test Card 12  374245110011003</t>
-  </si>
-  <si>
-    <t>292241573493804434</t>
-  </si>
-  <si>
-    <t>null  4462720000070215</t>
-  </si>
-  <si>
-    <t>291241573495921944</t>
-  </si>
-  <si>
-    <t>Test Card 13  4462720000070215</t>
-  </si>
-  <si>
-    <t>192241573498800799</t>
-  </si>
-  <si>
-    <t>224157349880070327</t>
-  </si>
-  <si>
-    <t>Test Card 14  5457211100130012</t>
-  </si>
-  <si>
-    <t>192241573500632019</t>
-  </si>
-  <si>
-    <t>224157350063200334</t>
-  </si>
-  <si>
-    <t>null  5457211100130012</t>
-  </si>
-  <si>
-    <t>292241573503230150</t>
-  </si>
-  <si>
-    <t>null  6510001111120844</t>
-  </si>
-  <si>
-    <t>292241573506106972</t>
-  </si>
-  <si>
-    <t>Test Card 15  6510001111120844</t>
-  </si>
-  <si>
-    <t>292241573507501586</t>
-  </si>
-  <si>
-    <t>null  36070511090715</t>
-  </si>
-  <si>
-    <t>291241573509534681</t>
-  </si>
-  <si>
-    <t>Test Card 16  36070511090715</t>
+    <t>Test Card 15  6510001111120810</t>
+  </si>
+  <si>
+    <t>111241692155693519</t>
+  </si>
+  <si>
+    <t>524169215569367998</t>
+  </si>
+  <si>
+    <t>111241692159276330</t>
+  </si>
+  <si>
+    <t>524169215927638000</t>
+  </si>
+  <si>
+    <t>null  6510001111120828</t>
+  </si>
+  <si>
+    <t>112241692161622879</t>
+  </si>
+  <si>
+    <t>624169216162297894</t>
+  </si>
+  <si>
+    <t>Test Card 16  6510001111120828</t>
+  </si>
+  <si>
+    <t>146241692164343409</t>
+  </si>
+  <si>
+    <t>824169216434344671</t>
+  </si>
+  <si>
+    <t>TEST CARD 17  6510001111120810</t>
+  </si>
+  <si>
+    <t>146241692167468337</t>
+  </si>
+  <si>
+    <t>824169216746834676</t>
+  </si>
+  <si>
+    <t>TEST CARD 18  4000001111120028</t>
+  </si>
+  <si>
+    <t>111241692169166492</t>
+  </si>
+  <si>
+    <t>524169216916648012</t>
+  </si>
+  <si>
+    <t>null  4761730110160135</t>
+  </si>
+  <si>
+    <t>111241692172069127</t>
+  </si>
+  <si>
+    <t>524169217206918015</t>
+  </si>
+  <si>
+    <t>Test Card 19  4761730110160135</t>
+  </si>
+  <si>
+    <t>145241692175088956</t>
+  </si>
+  <si>
+    <t>724169217508894774</t>
+  </si>
+  <si>
+    <t>Test Card 20  5413331100109130</t>
   </si>
 </sst>
 </file>
@@ -326,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -391,24 +448,24 @@
         <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>13</v>
@@ -425,13 +482,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -459,13 +516,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -493,24 +550,24 @@
         <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>13</v>
@@ -527,180 +584,180 @@
         <v>41</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="C15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>54</v>
-      </c>
       <c r="C16" t="s" s="0">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>64</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>64</v>
-      </c>
       <c r="C22" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>71</v>
@@ -711,58 +768,58 @@
         <v>72</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>12</v>
@@ -771,35 +828,33 @@
         <v>8</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>82</v>
-      </c>
+      <c r="A27" s="0"/>
       <c r="B27" t="s" s="0">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>13</v>
@@ -810,36 +865,121 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
